--- a/biology/Médecine/Anticorps_irrégulier/Anticorps_irrégulier.xlsx
+++ b/biology/Médecine/Anticorps_irrégulier/Anticorps_irrégulier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anticorps_irr%C3%A9gulier</t>
+          <t>Anticorps_irrégulier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un anticorps est qualifié d'irrégulier par les immuno-hématologistes lorsqu'il n'est pas systématiquement présent chez les sujets dépourvus de l'antigène correspondant. Ainsi les anticorps du système de groupe ABO sont des anticorps réguliers, car tout sujet âgé de plus de quelques mois ne possédant pas les substances A ou B, doit normalement avoir dans son sérum des anticorps anti-B ou anti-A. Par opposition, rares sont les sujets rh négatifs, donc dépourvus de l'antigène D (RH1), qui possèdent dans leur sérum un anti-D. Cet anticorps est donc qualifié d'irrégulier. La majorité des anticorps de groupes sanguins sont des « anticorps irréguliers ».
 La recherche d'anticorps irréguliers ou recherche d'agglutinines irrégulières (en France : RAI, en Belgique : Coombs indirect) est un examen d'immuno-hématologie permettant de mettre en évidence et d'identifier la spécificité d'anticorps anti-érythrocytaires présents dans le sérum d'un malade pour prévenir un choc transfusionnel ou pour détecter une incompatibilité fœto-maternelle chez une femme enceinte.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anticorps_irr%C3%A9gulier</t>
+          <t>Anticorps_irrégulier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Potentiel zêta / Théorie des ponts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Potentiel zêta ( ζ )
 Les hématies en suspension dans le plasma se repoussent du fait de la présence à leur surface de charges électriques négatives (COO-), charges qui maintiennent la présence d'un nuage d'ions positifs solidaires du globule, nuage dont la densité diminue en s'éloignant du globule. La différence de potentiel entre ce nuage de cations solidaires de l'hématie et le milieu neutre est de -15 mV. Ce potentiel ζ est déterminé grâce à la mesure de la mobilité des hématies dans un champ électrique.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anticorps_irr%C3%A9gulier</t>
+          <t>Anticorps_irrégulier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Agglutination artificielle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Milieu macromoléculaire. La mise en suspension des hématies du panel dans un milieu contenant de l'albumine avait permis de sensibiliser la méthode, par modification de la constante diélectrique du milieu. D'autres molécules, ficoll, dextran ou PVP ont été utilisées depuis.
 Traitement enzymatique des hématies. En traitant les hématies par une enzyme, (papaïne, trypsine, broméline ou ficine), on supprime un certain nombre de charges négatives à la surface de l'hématie, ce qui diminue le potentiel zêta, et permet alors à une IgG de provoquer une agglutination. Ce traitement permet également une meilleure accessibilité de certains épitopes et leur réorganisation à la surface de l'hématie. Mais ces enzymes détruisent aussi d'autres antigènes des hématies (antigènes FY, MNS, en particulier) et ne permettent donc pas de mettre tous les anticorps en évidence. Par contre cette technique est très sensible pour mettre en évidence les anticorps des systèmes Rhésus, Kidd, P1, et Lewis. Chaque enzyme est plus ou moins adaptée à la recherche de certains anticorps.
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anticorps_irr%C3%A9gulier</t>
+          <t>Anticorps_irrégulier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Interprétation des résultats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si, par exemple, sur un panel de quinze hématies, les huit hématies qui portent l'antigène D sont agglutinées, et si les sept hématies rhésus négatif ne le sont pas, nous pouvons affirmer, grâce à un test statistique, test du Khi-2 si applicable, ou méthode exacte de Fisher (voir la discussion de l'article) dans l'exemple présent, que le sérum testé contient un anticorps anti-D, avec un risque d'erreur d'environ un pour six mille, p = 0.000155. Le raisonnement est le même pour tous les anticorps, ce qui explique la difficulté qu'il y a pour constituer des panels d'hématies bien assorties entre elles, de telle sorte que les résultats observés soient statistiquement significatifs.
 D'où aussi la nécessité d'avoir des panels d'hématies suffisamment importants, voire plusieurs panels, pour pouvoir identifier un anticorps, quand il ne s'agit pas de mélanges de plusieurs anticorps, tels des anti-D + C + K + Fya, ce qui se voit chez certains patients polytransfusés. Les différences de sensibilité des diverses techniques utilisables nous aident aussi à identifier les anticorps constituant ces mélanges complexes.
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anticorps_irr%C3%A9gulier</t>
+          <t>Anticorps_irrégulier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Intérêt clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette recherche d'anticorps irréguliers est obligatoire : 
 avant une transfusion, pour éviter un accident hémolytique transfusionnel.
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anticorps_irr%C3%A9gulier</t>
+          <t>Anticorps_irrégulier</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,7 +679,9 @@
           <t>Épreuve de compatibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Par ailleurs, il faut savoir que tous les anticorps susceptibles d'être dépistés n'ont pas la même importance clinique, certains de ces anticorps n'ayant jamais entraîné d'accident transfusionnel. Nous pouvons citer par exemple l'anti-Wright a, l'anti-N… Sont également considérés comme non dangereux certains anticorps qui ne sont actifs qu'en techniques enzymatiques. Ces anticorps non dangereux, de même que les anticorps de type HTLA (High Title Low Affinity, haut titre  de faible affinité), sont parfaitement connus des Établissements de Transfusion.
 À l’inverse, certains anticorps ou mélanges d’anticorps dangereux rendent certaines transfusions très difficiles par manque de donneurs compatibles. Par exemple, parmi les seuls donneurs ABO et RH compatibles, moins de quatre donneurs sur mille conviennent lorsque le malade à transfuser est porteur d’un anti-K2 (anti-Cellano). D’où l’intérêt de la recherche d'anticorps irréguliers post-transfusionnelle ou lors du bilan préopératoire afin de n’être pas surpris, ni dépourvu, en cas d’urgence.
@@ -675,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anticorps_irr%C3%A9gulier</t>
+          <t>Anticorps_irrégulier</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +715,9 @@
           <t>R.A.I. / E.D.C.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Une R.A.I. négative permet de transfuser un patient dans tous les cas, hors anti-privé connu, nécessitant une transfusion. Si la R.A.I. est positive et l'anticorps identifié, le patient sera transfusé en urgence en unités phénotypées. Les textes imposent, pour toute RAI positive, une compatibilité au laboratoire, ce qui peut être inutile lorsque l'anticorps est bien identifié (anti E isolé par exemple) et provoque des retards qui peuvent être cause de décès (ces cas étant heureusement rare, la notion d'urgence vitale permettant de réaliser la R.A.I et l'E.D.C alors que les CGR ont déjà été délivrés au service de santé). La RAI est donc indiquée pour des transfusions imprévisibles, urgentes et/ou abondantes.
 L'E.D.C. offre une garantie supplémentaire à la sécurité transfusionnelle pour tout anticorps déjà mis en évidence ou connu (selon les textes), en permettant de mettre en évidence une incompatibilité liée à un anticorps anti-privé, ou non encore identifié ou masqué par un anticorps connu -anti-Jka masqué par un anti-c par exemple. Mais cette épreuve retarde la transfusion, du fait que chaque unité prévue doit être testée -temps du test lui-même à ajouter aux temps de transport entre le laboratoire et l'établissement de soins. Cette garantie est aussi dans certains cas parfaitement illusoire, lorsque l'anticorps dépisté (anti JK, anti MNS3…) n'est mis en évidence que sur les hématies homozygotes du panel pour l'antigène considéré. Dans ce cas, une épreuve de compatibilité négative effectuée à l'aveugle sur des unités non phénotypées ne permet pas de garantir la sécurité transfusionnelle. L'E.D.C. peut toutefois être pratiquée sur des unités phénotypées pour une transfusion urgente non vitale immédiate ou non programmée et ne concerne généralement que quelques unités de concentrés érythrocytaires.
